--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/Documents/GitHub/HomeAutomation-MotorController/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A7C3925-FECB-DB4D-8DD6-1155B34AA11C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5CC0F0-F580-664C-8863-5C1685827832}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{793B4A35-FC43-EC48-BA68-B38721391386}"/>
   </bookViews>
@@ -371,12 +371,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F303D1-65CC-DB49-BD2A-0137B002CD71}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/Documents/GitHub/HomeAutomation-MotorController/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5CC0F0-F580-664C-8863-5C1685827832}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFE2BCD-79E9-F04E-B12F-3C0B45CAB031}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{793B4A35-FC43-EC48-BA68-B38721391386}"/>
   </bookViews>
@@ -22,6 +22,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>dfsf</t>
+  </si>
+  <si>
+    <t>sfewf</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,15 +382,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F303D1-65CC-DB49-BD2A-0137B002CD71}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -390,6 +401,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
